--- a/docs/notebooks/data/fedbatch_fedbatch1_testing_batchdata_noisy.xlsx
+++ b/docs/notebooks/data/fedbatch_fedbatch1_testing_batchdata_noisy.xlsx
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1706104473901454</v>
+        <v>0.1665997958244148</v>
       </c>
       <c r="D2" t="n">
-        <v>62.31053733252715</v>
+        <v>56.43332382052655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1955853598633503</v>
+        <v>0.153759167860843</v>
       </c>
       <c r="F2" t="n">
-        <v>3.870118989977402</v>
+        <v>0.5928920083319424</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2298023984463549</v>
+        <v>0.3657147854415364</v>
       </c>
       <c r="D3" t="n">
-        <v>59.56397644224442</v>
+        <v>41.45415687577069</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5642044283991474</v>
+        <v>2.456545809447455</v>
       </c>
       <c r="F3" t="n">
-        <v>4.196436727309679</v>
+        <v>0.7680803126325425</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2737137586955004</v>
+        <v>0.5398665447771468</v>
       </c>
       <c r="D4" t="n">
-        <v>56.7040827067207</v>
+        <v>33.62353661399179</v>
       </c>
       <c r="E4" t="n">
-        <v>0.799883865053875</v>
+        <v>3.518019616177737</v>
       </c>
       <c r="F4" t="n">
-        <v>4.333702635138771</v>
+        <v>0.9739507866271381</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4399171853926251</v>
+        <v>0.7223430829397475</v>
       </c>
       <c r="D5" t="n">
-        <v>55.41985076582901</v>
+        <v>26.21012337465516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9432651724641165</v>
+        <v>3.966217411450854</v>
       </c>
       <c r="F5" t="n">
-        <v>4.607631160917641</v>
+        <v>1.306251845543919</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6483481266198544</v>
+        <v>1.26110052964417</v>
       </c>
       <c r="D6" t="n">
-        <v>51.80902694792792</v>
+        <v>23.65686600649336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8850631916060058</v>
+        <v>3.561087035725909</v>
       </c>
       <c r="F6" t="n">
-        <v>4.797902504061089</v>
+        <v>1.515346477858623</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9406170850212482</v>
+        <v>2.072541300615169</v>
       </c>
       <c r="D7" t="n">
-        <v>50.58331222310121</v>
+        <v>21.36152468615415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6803566277856896</v>
+        <v>2.38198148263037</v>
       </c>
       <c r="F7" t="n">
-        <v>5.102326693539771</v>
+        <v>1.670874335642752</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.193427487836374</v>
+        <v>3.070328327164224</v>
       </c>
       <c r="D8" t="n">
-        <v>46.70925082713161</v>
+        <v>19.60653101987885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.446642398865443</v>
+        <v>0.8570223710457577</v>
       </c>
       <c r="F8" t="n">
-        <v>5.333963642337987</v>
+        <v>1.88366409190616</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>1.501492924420091</v>
+        <v>3.601914334421808</v>
       </c>
       <c r="D9" t="n">
-        <v>46.31113117345381</v>
+        <v>16.85870156828176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2615607863627488</v>
+        <v>0.237852768163538</v>
       </c>
       <c r="F9" t="n">
-        <v>5.281052955962818</v>
+        <v>2.143990387381906</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>1.545675494877139</v>
+        <v>3.701880253661649</v>
       </c>
       <c r="D10" t="n">
-        <v>46.11917431191578</v>
+        <v>14.93160137600482</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1832869415889947</v>
+        <v>0.2306129846327113</v>
       </c>
       <c r="F10" t="n">
-        <v>5.852505077893012</v>
+        <v>2.250844921357771</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>1.740762375146364</v>
+        <v>3.772264407191295</v>
       </c>
       <c r="D11" t="n">
-        <v>41.89316015034417</v>
+        <v>14.2067572290145</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1589767977762712</v>
+        <v>0.1277857790922204</v>
       </c>
       <c r="F11" t="n">
-        <v>5.713683919955233</v>
+        <v>2.509038325505864</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>1.869093421330333</v>
+        <v>3.86461863085781</v>
       </c>
       <c r="D12" t="n">
-        <v>41.0301781710164</v>
+        <v>13.49649419094325</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1344422697076893</v>
+        <v>0.180115877911402</v>
       </c>
       <c r="F12" t="n">
-        <v>6.038717277985183</v>
+        <v>2.783234101975589</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>1.907932412020461</v>
+        <v>3.969546192087241</v>
       </c>
       <c r="D13" t="n">
-        <v>38.81282455958083</v>
+        <v>13.13395011661649</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1289425282015715</v>
+        <v>0.06363411700330768</v>
       </c>
       <c r="F13" t="n">
-        <v>6.506188296898556</v>
+        <v>2.838674410909438</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>1.990549595035623</v>
+        <v>4.008608278221033</v>
       </c>
       <c r="D14" t="n">
-        <v>38.6347565925314</v>
+        <v>12.01657681006507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1027806766296796</v>
+        <v>0.1109631015419993</v>
       </c>
       <c r="F14" t="n">
-        <v>6.468445766914844</v>
+        <v>3.166501999639347</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>2.162627205915117</v>
+        <v>4.166151155780338</v>
       </c>
       <c r="D15" t="n">
-        <v>36.01679590681084</v>
+        <v>10.27239061750221</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08213908323139289</v>
+        <v>0.09094663140392872</v>
       </c>
       <c r="F15" t="n">
-        <v>6.957505137613103</v>
+        <v>3.300747313374659</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>2.271315168315922</v>
+        <v>4.08189404620815</v>
       </c>
       <c r="D16" t="n">
-        <v>36.66317278488118</v>
+        <v>11.09237726061986</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05935998359254825</v>
+        <v>0.1223274968641734</v>
       </c>
       <c r="F16" t="n">
-        <v>6.917161454671909</v>
+        <v>3.666612573073557</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>2.31469846353643</v>
+        <v>4.323848634415815</v>
       </c>
       <c r="D17" t="n">
-        <v>36.81839981135299</v>
+        <v>9.613567789615315</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1058364207803489</v>
+        <v>0.0739916204664739</v>
       </c>
       <c r="F17" t="n">
-        <v>7.327268325167203</v>
+        <v>3.767131880376319</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>2.406487335589338</v>
+        <v>4.291984100163914</v>
       </c>
       <c r="D18" t="n">
-        <v>32.86518231563931</v>
+        <v>10.06414044836635</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07322132419431246</v>
+        <v>0.07377692416886689</v>
       </c>
       <c r="F18" t="n">
-        <v>7.497048815969332</v>
+        <v>4.170961444635592</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>2.508249329861055</v>
+        <v>4.324296546215024</v>
       </c>
       <c r="D19" t="n">
-        <v>33.82676606016329</v>
+        <v>9.257749308872018</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07542436753909443</v>
+        <v>0.09913714621632187</v>
       </c>
       <c r="F19" t="n">
-        <v>7.515381959960477</v>
+        <v>4.057220001967738</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>2.528987828299717</v>
+        <v>4.523842889773126</v>
       </c>
       <c r="D20" t="n">
-        <v>30.56173728144743</v>
+        <v>8.055541131311198</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06467137130463441</v>
+        <v>0.1056686815460239</v>
       </c>
       <c r="F20" t="n">
-        <v>7.815976653321488</v>
+        <v>4.321908806023299</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>2.610139832498959</v>
+        <v>4.484353700269675</v>
       </c>
       <c r="D21" t="n">
-        <v>31.08163920554193</v>
+        <v>7.740824033395551</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08149811986726199</v>
+        <v>0.05744272051531361</v>
       </c>
       <c r="F21" t="n">
-        <v>8.283423324529839</v>
+        <v>4.649154369382726</v>
       </c>
     </row>
   </sheetData>
